--- a/exercises/documento28/GestioneScenari_1.xlsx
+++ b/exercises/documento28/GestioneScenari_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\iDocet\Corso_Excel\Excel_Base_Avanzato\eserciziario_excel2016\Documenti_di alvoro_excel2016\documento28\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A825CEA-AA15-4C99-BD5F-F6A796371029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{836C2A45-7480-49B6-9285-DC7F32FAF219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5775" yWindow="2970" windowWidth="28800" windowHeight="15435" xr2:uid="{8E53AFC8-686F-4FB0-BE31-AEE2346758AA}"/>
+    <workbookView xWindow="7905" yWindow="3645" windowWidth="18915" windowHeight="11670" xr2:uid="{8E53AFC8-686F-4FB0-BE31-AEE2346758AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,9 +37,35 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>Elementi</t>
+  </si>
+  <si>
+    <t>Valori</t>
+  </si>
+  <si>
+    <t>Guadagni</t>
+  </si>
+  <si>
+    <t>Ricavi</t>
+  </si>
+  <si>
+    <t>Spese</t>
+  </si>
+  <si>
+    <t>Fisso $B$3</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.00\ [$€-410]"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -47,16 +73,43 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -64,12 +117,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -384,12 +457,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88E1BF2E-DBCB-4F82-92CA-7F5DDAEEDBD7}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6:E6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5">
+        <f>B2-B3</f>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
